--- a/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Alcam.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Alcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H2">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.54665982679322</v>
+        <v>42.078429</v>
       </c>
       <c r="N2">
-        <v>3.54665982679322</v>
+        <v>126.235287</v>
       </c>
       <c r="O2">
-        <v>0.8952598949936209</v>
+        <v>0.9777085588730982</v>
       </c>
       <c r="P2">
-        <v>0.8952598949936209</v>
+        <v>0.9777085588730982</v>
       </c>
       <c r="Q2">
-        <v>45.24113678271853</v>
+        <v>950.7569416343759</v>
       </c>
       <c r="R2">
-        <v>45.24113678271853</v>
+        <v>8556.812474709384</v>
       </c>
       <c r="S2">
-        <v>0.5546591815261195</v>
+        <v>0.7230173910559203</v>
       </c>
       <c r="T2">
-        <v>0.5546591815261195</v>
+        <v>0.7230173910559203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H3">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.414938192537794</v>
+        <v>0.4771596666666666</v>
       </c>
       <c r="N3">
-        <v>0.414938192537794</v>
+        <v>1.431479</v>
       </c>
       <c r="O3">
-        <v>0.1047401050063791</v>
+        <v>0.01108698925164327</v>
       </c>
       <c r="P3">
-        <v>0.1047401050063791</v>
+        <v>0.01108698925164327</v>
       </c>
       <c r="Q3">
-        <v>5.292945036104475</v>
+        <v>10.78136413674756</v>
       </c>
       <c r="R3">
-        <v>5.292945036104475</v>
+        <v>97.032277230728</v>
       </c>
       <c r="S3">
-        <v>0.06489183894048109</v>
+        <v>0.008198850230612124</v>
       </c>
       <c r="T3">
-        <v>0.06489183894048109</v>
+        <v>0.008198850230612124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.252694821842254</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H4">
-        <v>0.252694821842254</v>
+        <v>67.784632</v>
       </c>
       <c r="I4">
-        <v>0.0122732461913006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J4">
-        <v>0.0122732461913006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.54665982679322</v>
+        <v>0.482215</v>
       </c>
       <c r="N4">
-        <v>3.54665982679322</v>
+        <v>1.446645</v>
       </c>
       <c r="O4">
-        <v>0.8952598949936209</v>
+        <v>0.01120445187525872</v>
       </c>
       <c r="P4">
-        <v>0.8952598949936209</v>
+        <v>0.01120445187525872</v>
       </c>
       <c r="Q4">
-        <v>0.8962225730665921</v>
+        <v>10.89558877329333</v>
       </c>
       <c r="R4">
-        <v>0.8962225730665921</v>
+        <v>98.06029895963999</v>
       </c>
       <c r="S4">
-        <v>0.01098774509645464</v>
+        <v>0.008285714070457112</v>
       </c>
       <c r="T4">
-        <v>0.01098774509645464</v>
+        <v>0.008285714070457112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H5">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.414938192537794</v>
+        <v>42.078429</v>
       </c>
       <c r="N5">
-        <v>0.414938192537794</v>
+        <v>126.235287</v>
       </c>
       <c r="O5">
-        <v>0.1047401050063791</v>
+        <v>0.9777085588730982</v>
       </c>
       <c r="P5">
-        <v>0.1047401050063791</v>
+        <v>0.9777085588730982</v>
       </c>
       <c r="Q5">
-        <v>0.1048527326388848</v>
+        <v>12.817033368828</v>
       </c>
       <c r="R5">
-        <v>0.1048527326388848</v>
+        <v>115.353300319452</v>
       </c>
       <c r="S5">
-        <v>0.001285501094845968</v>
+        <v>0.009746905461953911</v>
       </c>
       <c r="T5">
-        <v>0.001285501094845968</v>
+        <v>0.009746905461953911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.58039885238086</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H6">
-        <v>7.58039885238086</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.3681757333420987</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J6">
-        <v>0.3681757333420987</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.54665982679322</v>
+        <v>0.4771596666666666</v>
       </c>
       <c r="N6">
-        <v>3.54665982679322</v>
+        <v>1.431479</v>
       </c>
       <c r="O6">
-        <v>0.8952598949936209</v>
+        <v>0.01108698925164327</v>
       </c>
       <c r="P6">
-        <v>0.8952598949936209</v>
+        <v>0.01108698925164327</v>
       </c>
       <c r="Q6">
-        <v>26.88509608080863</v>
+        <v>0.1453421982537778</v>
       </c>
       <c r="R6">
-        <v>26.88509608080863</v>
+        <v>1.308079784284</v>
       </c>
       <c r="S6">
-        <v>0.3296129683710466</v>
+        <v>0.0001105276568490102</v>
       </c>
       <c r="T6">
-        <v>0.3296129683710466</v>
+        <v>0.0001105276568490102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.58039885238086</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H7">
-        <v>7.58039885238086</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.3681757333420987</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J7">
-        <v>0.3681757333420987</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.414938192537794</v>
+        <v>0.482215</v>
       </c>
       <c r="N7">
-        <v>0.414938192537794</v>
+        <v>1.446645</v>
       </c>
       <c r="O7">
-        <v>0.1047401050063791</v>
+        <v>0.01120445187525872</v>
       </c>
       <c r="P7">
-        <v>0.1047401050063791</v>
+        <v>0.01120445187525872</v>
       </c>
       <c r="Q7">
-        <v>3.145396998522482</v>
+        <v>0.1468820460466667</v>
       </c>
       <c r="R7">
-        <v>3.145396998522482</v>
+        <v>1.32193841442</v>
       </c>
       <c r="S7">
-        <v>0.03856276497105206</v>
+        <v>0.0001116986572225903</v>
       </c>
       <c r="T7">
-        <v>0.03856276497105206</v>
+        <v>0.0001116986572225903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.654706</v>
+      </c>
+      <c r="H8">
+        <v>22.964118</v>
+      </c>
+      <c r="I8">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="J8">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>42.078429</v>
+      </c>
+      <c r="N8">
+        <v>126.235287</v>
+      </c>
+      <c r="O8">
+        <v>0.9777085588730982</v>
+      </c>
+      <c r="P8">
+        <v>0.9777085588730982</v>
+      </c>
+      <c r="Q8">
+        <v>322.098002936874</v>
+      </c>
+      <c r="R8">
+        <v>2898.882026431866</v>
+      </c>
+      <c r="S8">
+        <v>0.2449442623552238</v>
+      </c>
+      <c r="T8">
+        <v>0.2449442623552238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.654706</v>
+      </c>
+      <c r="H9">
+        <v>22.964118</v>
+      </c>
+      <c r="I9">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="J9">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4771596666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.431479</v>
+      </c>
+      <c r="O9">
+        <v>0.01108698925164327</v>
+      </c>
+      <c r="P9">
+        <v>0.01108698925164327</v>
+      </c>
+      <c r="Q9">
+        <v>3.652516963391333</v>
+      </c>
+      <c r="R9">
+        <v>32.872652670522</v>
+      </c>
+      <c r="S9">
+        <v>0.002777611364182135</v>
+      </c>
+      <c r="T9">
+        <v>0.002777611364182135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.654706</v>
+      </c>
+      <c r="H10">
+        <v>22.964118</v>
+      </c>
+      <c r="I10">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="J10">
+        <v>0.2505289128669849</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.482215</v>
+      </c>
+      <c r="N10">
+        <v>1.446645</v>
+      </c>
+      <c r="O10">
+        <v>0.01120445187525872</v>
+      </c>
+      <c r="P10">
+        <v>0.01120445187525872</v>
+      </c>
+      <c r="Q10">
+        <v>3.69121405379</v>
+      </c>
+      <c r="R10">
+        <v>33.22092648411</v>
+      </c>
+      <c r="S10">
+        <v>0.002807039147579018</v>
+      </c>
+      <c r="T10">
+        <v>0.002807039147579018</v>
       </c>
     </row>
   </sheetData>
